--- a/footnotation.xlsx
+++ b/footnotation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>password</t>
   </si>
@@ -51,9 +51,6 @@
     <t>first_name</t>
   </si>
   <si>
-    <t>last_name</t>
-  </si>
-  <si>
     <t>pronunciation</t>
   </si>
   <si>
@@ -73,6 +70,12 @@
   </si>
   <si>
     <t>grammer_type</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,11 +143,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +181,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,17 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F19"/>
+  <dimension ref="C2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -479,19 +502,19 @@
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -520,18 +543,19 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -539,7 +563,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>2</v>
@@ -547,18 +571,47 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/footnotation.xlsx
+++ b/footnotation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>password</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>category_id (Fk)</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +478,7 @@
   <dimension ref="C2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,12 +541,12 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -548,13 +554,13 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -562,7 +568,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -570,7 +576,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -578,8 +584,13 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
